--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject40.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject40.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.81609474327183962</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0</v>
+        <v>0.59491672768330839</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -179,7 +179,7 @@
         <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -245,7 +245,7 @@
         <v>0</v>
       </c>
       <c r="AN1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO1" s="0">
         <v>0</v>
@@ -254,7 +254,7 @@
         <v>0</v>
       </c>
       <c r="AQ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR1" s="0">
         <v>0</v>
@@ -308,13 +308,13 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>0</v>
+        <v>0.53594963900454906</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
       </c>
       <c r="BK1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL1" s="0">
         <v>0</v>
@@ -334,13 +334,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.99760234160146521</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>0</v>
+        <v>0.6670518260787861</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -457,13 +457,13 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>0</v>
+        <v>0.69907859805780581</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
       </c>
       <c r="AR2" s="0">
-        <v>0</v>
+        <v>0.75214636237087806</v>
       </c>
       <c r="AS2" s="0">
         <v>0</v>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="AV2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="0">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="BC2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="0">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="0">
-        <v>0</v>
+        <v>0.63997464987429575</v>
       </c>
       <c r="BH2" s="0">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0</v>
+        <v>0.74161964191314911</v>
       </c>
       <c r="BL2" s="0">
         <v>0</v>
       </c>
       <c r="BM2" s="0">
-        <v>0</v>
+        <v>0.98620252584750578</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,16 +552,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.92999031812534827</v>
       </c>
       <c r="F3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>1</v>
+        <v>0.6043432582051701</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>0.53742515265676427</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -603,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>0</v>
+        <v>0.82615239081356728</v>
       </c>
       <c r="W3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="0">
-        <v>0</v>
+        <v>0.94538002538787635</v>
       </c>
       <c r="Y3" s="0">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="AY3" s="0">
-        <v>0</v>
+        <v>0.706231116755762</v>
       </c>
       <c r="AZ3" s="0">
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>0</v>
+        <v>0.74467892499225208</v>
       </c>
     </row>
     <row r="4">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.97565328816883379</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="0">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="AO4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="0">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="0">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="0">
-        <v>0</v>
+        <v>0.7516180947921336</v>
       </c>
       <c r="BE4" s="0">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>0</v>
+        <v>0.97375119774146346</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.78044126746182019</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.54725882349018018</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="0">
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0</v>
+        <v>0.50461288209482724</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="0">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>0</v>
+        <v>0.64388120506086044</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>0.77607207723886007</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0">
-        <v>0</v>
+        <v>0.56290647329093146</v>
       </c>
       <c r="AH6" s="0">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="0">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.96912974538947427</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="0">
-        <v>0</v>
+        <v>0.75554160619464361</v>
       </c>
       <c r="AG7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="0">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>1</v>
+        <v>0.72489381406357412</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.94090006657833059</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="0">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="0">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.79803159896400633</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.52594804897639835</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>0</v>
+        <v>0.54774740340049055</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>1</v>
+        <v>0.63954060123522505</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>0</v>
+        <v>0.91946468252950253</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>0</v>
+        <v>0.57789482449085428</v>
       </c>
       <c r="BK9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="0">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="0">
-        <v>0</v>
+        <v>0.90462301371035903</v>
       </c>
       <c r="AJ10" s="0">
         <v>0</v>
@@ -2141,22 +2141,22 @@
         <v>0</v>
       </c>
       <c r="BB10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="0">
         <v>0</v>
       </c>
       <c r="BE10" s="0">
-        <v>0</v>
+        <v>0.52666331764299823</v>
       </c>
       <c r="BF10" s="0">
         <v>0</v>
       </c>
       <c r="BG10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>0</v>
+        <v>0.86820418332864602</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.58558490730272084</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="0">
-        <v>0</v>
+        <v>0.61924786614908989</v>
       </c>
       <c r="AF11" s="0">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="0">
-        <v>0</v>
+        <v>0.60524496280263529</v>
       </c>
       <c r="AJ11" s="0">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="0">
-        <v>0</v>
+        <v>0.57976700730889785</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0</v>
+        <v>0.80789480980143147</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>0.9611926258137109</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="0">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="0">
-        <v>0</v>
+        <v>0.91747583258037846</v>
       </c>
       <c r="AD12" s="0">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="AS12" s="0">
-        <v>0</v>
+        <v>0.84456678032729005</v>
       </c>
       <c r="AT12" s="0">
         <v>0</v>
       </c>
       <c r="AU12" s="0">
-        <v>0</v>
+        <v>0.74623363950806509</v>
       </c>
       <c r="AV12" s="0">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="AX12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="0">
-        <v>0</v>
+        <v>0.96604610688377324</v>
       </c>
       <c r="AZ12" s="0">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.51832645088109852</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2639,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.67712342234046485</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.62622877288884271</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>1</v>
+        <v>0.56864360421393334</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="0">
-        <v>0</v>
+        <v>0.97219132602138614</v>
       </c>
       <c r="BL13" s="0">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.64112005677633221</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.54252030491316128</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AY14" s="0">
-        <v>0</v>
+        <v>0.82396188080980504</v>
       </c>
       <c r="AZ14" s="0">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="BN14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO14" s="0">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="0">
-        <v>0</v>
+        <v>0.88435413443829036</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.54296045902122692</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.64431465820992084</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0</v>
+        <v>0.71662513128730465</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.56677882780343303</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="BA15" s="0">
-        <v>0</v>
+        <v>0.83628703130179283</v>
       </c>
       <c r="BB15" s="0">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="0">
-        <v>0</v>
+        <v>0.57998490655887336</v>
       </c>
       <c r="BJ15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.9457659993721802</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>0</v>
+        <v>0.59407720497442829</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="0">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="AO16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="0">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3457,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.68650013197796056</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.81522961350378276</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0</v>
+        <v>0.73397130018388834</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="0">
-        <v>0</v>
+        <v>0.83594212218574548</v>
       </c>
       <c r="BF17" s="0">
         <v>0</v>
@@ -3625,12 +3625,12 @@
         <v>0</v>
       </c>
       <c r="BP17" s="0">
-        <v>0</v>
+        <v>0.80077943942617491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.90701633637043866</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.604646929986139</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.93641412115397493</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>0</v>
+        <v>0.96679213352342142</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>0</v>
+        <v>0.68572156312566979</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -3884,22 +3884,22 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.59485132964336218</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.563200364512358</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>0</v>
+        <v>0.6777923350585392</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0</v>
+        <v>0.57662049931835935</v>
       </c>
       <c r="AC19" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="AL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="0">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0</v>
+        <v>0.9537694111063284</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>0</v>
+        <v>0.72292077892149997</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="0">
-        <v>0</v>
+        <v>0.9497950759926681</v>
       </c>
       <c r="AH20" s="0">
         <v>0</v>
@@ -4165,22 +4165,22 @@
         <v>0</v>
       </c>
       <c r="AP20" s="0">
-        <v>0</v>
+        <v>0.54088780545082604</v>
       </c>
       <c r="AQ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="0">
-        <v>0</v>
+        <v>0.90587202770923636</v>
       </c>
       <c r="AS20" s="0">
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>0</v>
+        <v>0.68733868765831219</v>
       </c>
       <c r="AU20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4314,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="0">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="0">
         <v>0</v>
@@ -4362,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0</v>
+        <v>0.66693560878816993</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>0</v>
+        <v>0.57348647453141632</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4457,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="0">
-        <v>0</v>
+        <v>0.77242586039908656</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>0.93272539818587097</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>0</v>
+        <v>0.82379727089629395</v>
       </c>
       <c r="T22" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>1</v>
+        <v>0.77399096721355032</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>0</v>
+        <v>0.684857203277907</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="AT22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="0">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="0">
-        <v>0</v>
+        <v>0.72277216482581008</v>
       </c>
       <c r="AM23" s="0">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="0">
-        <v>1</v>
+        <v>0.75857675816220138</v>
       </c>
       <c r="AR23" s="0">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="BD23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="0">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>0</v>
+        <v>0.57656605003202621</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4926,13 +4926,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="0">
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="0">
         <v>0</v>
@@ -4968,13 +4968,13 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="0">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>0</v>
+        <v>0.90388774019735307</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0</v>
+        <v>0.85011474731079972</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="BM24" s="0">
-        <v>0</v>
+        <v>0.63137672264315714</v>
       </c>
       <c r="BN24" s="0">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>1</v>
+        <v>0.74328592116531333</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AX25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>0</v>
+        <v>0.54682351422106112</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0</v>
+        <v>0.89218304147574334</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>1</v>
+        <v>0.56424246934748268</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -5317,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="0">
         <v>0</v>
       </c>
       <c r="P26" s="0">
-        <v>0</v>
+        <v>0.73621664492251626</v>
       </c>
       <c r="Q26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0</v>
+        <v>0.65373255755783433</v>
       </c>
       <c r="AL26" s="0">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="AO26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="0">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="BC26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="0">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="0">
         <v>0</v>
@@ -5619,19 +5619,19 @@
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>0</v>
+        <v>0.91211909320257079</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
       </c>
       <c r="AV27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="0">
         <v>0</v>
       </c>
       <c r="AX27" s="0">
-        <v>0</v>
+        <v>0.75744083570373888</v>
       </c>
       <c r="AY27" s="0">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0</v>
+        <v>0.91468451120493444</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="BD28" s="0">
-        <v>0</v>
+        <v>0.94267336337804819</v>
       </c>
       <c r="BE28" s="0">
         <v>0</v>
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="BG28" s="0">
-        <v>0</v>
+        <v>0.98370340975522541</v>
       </c>
       <c r="BH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>0</v>
+        <v>0.79315812036494082</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="0">
-        <v>0</v>
+        <v>0.71093629928791802</v>
       </c>
       <c r="M29" s="0">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>0</v>
+        <v>0.56807593192130401</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0</v>
+        <v>0.9035954955344585</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>0</v>
+        <v>0.99120958124043557</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6079,13 +6079,13 @@
         <v>0</v>
       </c>
       <c r="BJ29" s="0">
-        <v>0</v>
+        <v>0.87154922028353399</v>
       </c>
       <c r="BK29" s="0">
         <v>0</v>
       </c>
       <c r="BL29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM29" s="0">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="0">
         <v>0</v>
@@ -6165,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>1</v>
+        <v>0.59548945523242858</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
       </c>
       <c r="X30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="0">
         <v>0</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="0">
-        <v>0</v>
+        <v>0.65531420421442121</v>
       </c>
       <c r="AK30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0</v>
+        <v>0.53261124785109848</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6255,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>0</v>
+        <v>0.85640029866117684</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
       </c>
       <c r="BB30" s="0">
-        <v>0</v>
+        <v>0.93959194615569297</v>
       </c>
       <c r="BC30" s="0">
         <v>0</v>
@@ -6276,10 +6276,10 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>0</v>
+        <v>0.83731648257921287</v>
       </c>
       <c r="BH30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="0">
-        <v>0</v>
+        <v>0.50543900294858146</v>
       </c>
       <c r="L31" s="0">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>0</v>
+        <v>0.50324336826817173</v>
       </c>
       <c r="AV31" s="0">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>1</v>
+        <v>0.62303958246755897</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>0</v>
+        <v>0.82859963162254802</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0</v>
+        <v>0.67145543903653326</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="0">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="0">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>0</v>
+        <v>0.71948426752648764</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="0">
-        <v>0</v>
+        <v>0.74141703468960796</v>
       </c>
       <c r="G33" s="0">
         <v>0</v>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>0</v>
+        <v>0.91095515803369453</v>
       </c>
       <c r="U33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -6864,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="AW33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="0">
-        <v>1</v>
+        <v>0.6095223779957808</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>0</v>
+        <v>0.67128069194027717</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="0">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
@@ -7058,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="0">
         <v>0</v>
@@ -7073,13 +7073,13 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>0</v>
+        <v>0.86135311811242943</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>0</v>
+        <v>0.69674426106610854</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
@@ -7103,10 +7103,10 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>0</v>
+        <v>0.74387036752237889</v>
       </c>
       <c r="BI34" s="0">
-        <v>0</v>
+        <v>0.86317246446396412</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7118,10 +7118,10 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>1</v>
+        <v>0.6959630931015246</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7156,13 +7156,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>0</v>
+        <v>0.93050050927153716</v>
       </c>
       <c r="J35" s="0">
-        <v>0</v>
+        <v>0.78495147661968911</v>
       </c>
       <c r="K35" s="0">
-        <v>0</v>
+        <v>0.76419277467056523</v>
       </c>
       <c r="L35" s="0">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7201,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="X35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="0">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="0">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="0">
         <v>0</v>
@@ -7422,10 +7422,10 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>0</v>
+        <v>0.97274594172220263</v>
       </c>
       <c r="AD36" s="0">
-        <v>0</v>
+        <v>0.87060904086894908</v>
       </c>
       <c r="AE36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.98802303245895007</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>0</v>
+        <v>0.8630893190649398</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="BF36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="0">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="BO36" s="0">
-        <v>0</v>
+        <v>0.51585895680995697</v>
       </c>
       <c r="BP36" s="0">
         <v>0</v>
@@ -7553,10 +7553,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="0">
         <v>0</v>
@@ -7613,13 +7613,13 @@
         <v>0</v>
       </c>
       <c r="X37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="0">
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>0</v>
+        <v>0.62977121668699809</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7649,16 +7649,16 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.85098685377733108</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.83023618433469626</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.54840397535613761</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="0">
         <v>0</v>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>0</v>
+        <v>0.51471895215992447</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>0</v>
+        <v>0.68017135873679013</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="0">
         <v>0</v>
@@ -7801,10 +7801,10 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>0</v>
+        <v>0.59628317460715918</v>
       </c>
       <c r="S38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="0">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0">
-        <v>0</v>
+        <v>0.73634661472316609</v>
       </c>
       <c r="X38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.53063652647848281</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7879,10 +7879,10 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0</v>
+        <v>0.8423373882100047</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.70199829258581414</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.78170994521367598</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.74819695504387207</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>0</v>
+        <v>0.8173468971797343</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8157,12 +8157,12 @@
         <v>0</v>
       </c>
       <c r="BP39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>0</v>
+        <v>0.98388894430718787</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>0</v>
+        <v>0.92635202019432761</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.59090795981156374</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8315,13 +8315,13 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
       </c>
       <c r="BB40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC40" s="0">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="BL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM40" s="0">
         <v>0</v>
@@ -8360,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="BO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP40" s="0">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0">
         <v>0</v>
@@ -8410,10 +8410,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.9447113394607467</v>
       </c>
       <c r="P41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="0">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>0</v>
+        <v>0.95849287941554961</v>
       </c>
       <c r="V41" s="0">
-        <v>0</v>
+        <v>0.59866776735385363</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="0">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8479,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="AL41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.73522177722211257</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="BD41" s="0">
-        <v>0</v>
+        <v>0.73121805722332134</v>
       </c>
       <c r="BE41" s="0">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="BG41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH41" s="0">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="0">
-        <v>0</v>
+        <v>0.83206319017012631</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>0</v>
+        <v>0.65198771468076622</v>
       </c>
       <c r="U42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="BG42" s="0">
-        <v>0</v>
+        <v>0.7949747387837478</v>
       </c>
       <c r="BH42" s="0">
         <v>0</v>
@@ -8775,12 +8775,12 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="0">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>1</v>
+        <v>0.83219289246860817</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0</v>
+        <v>0.66374208498550824</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8909,13 +8909,13 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.71197001143623928</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
       </c>
       <c r="AT43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0</v>
+        <v>0.50643870569015614</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>0</v>
+        <v>0.94597936359639456</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="0">
-        <v>0</v>
+        <v>0.95926988189581452</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
@@ -9040,10 +9040,10 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>0</v>
+        <v>0.7454310978645472</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9094,10 +9094,10 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.86166742180182965</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="0">
         <v>0</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="0">
-        <v>0</v>
+        <v>0.83292256271776532</v>
       </c>
       <c r="M45" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>0</v>
+        <v>0.94179091859807307</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9288,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="0">
         <v>0</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="0">
-        <v>0</v>
+        <v>0.85833019134883992</v>
       </c>
       <c r="AM45" s="0">
         <v>0</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="0">
-        <v>0</v>
+        <v>0.91655104765488216</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -9455,13 +9455,13 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>0</v>
+        <v>0.74660557431321117</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="0">
-        <v>0</v>
+        <v>0.67495107998854031</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="AF46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="0">
         <v>0</v>
       </c>
       <c r="AH46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="0">
         <v>0</v>
@@ -9524,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="0">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>0</v>
+        <v>0.72377594737631967</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>0</v>
+        <v>0.60590754323217388</v>
       </c>
       <c r="M47" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="0">
-        <v>0</v>
+        <v>0.98124701116759916</v>
       </c>
       <c r="AF47" s="0">
         <v>0</v>
@@ -9754,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="AY47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>0</v>
+        <v>0.72379160013800681</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>1</v>
+        <v>0.97010809219839755</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>0.5441159683081902</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.63992901839251293</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="AG49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="0">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>0</v>
+        <v>0.50821377907140541</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.99745228836996613</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="BL49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM49" s="0">
         <v>0</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="BP49" s="0">
-        <v>0</v>
+        <v>0.51243530284476846</v>
       </c>
     </row>
     <row r="50">
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="0">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>0</v>
+        <v>0.69615479683753234</v>
       </c>
       <c r="V50" s="0">
         <v>0</v>
@@ -10294,13 +10294,13 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="0">
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>0</v>
+        <v>0.70641376501675701</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10318,10 +10318,10 @@
         <v>0</v>
       </c>
       <c r="AG50" s="0">
-        <v>1</v>
+        <v>0.62381034257728207</v>
       </c>
       <c r="AH50" s="0">
-        <v>0</v>
+        <v>0.98703514814841231</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="BB50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC50" s="0">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0</v>
+        <v>0.50991212450015444</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="0">
-        <v>0</v>
+        <v>0.6595267099620441</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -10461,13 +10461,13 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>0</v>
+        <v>0.61808036706308644</v>
       </c>
       <c r="M51" s="0">
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>0</v>
+        <v>0.76049931113204372</v>
       </c>
       <c r="O51" s="0">
         <v>0</v>
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="AU51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10652,10 +10652,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>0</v>
+        <v>0.92891366431158873</v>
       </c>
       <c r="AE52" s="0">
         <v>0</v>
@@ -10733,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0</v>
+        <v>0.5747179499494468</v>
       </c>
       <c r="AI52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0</v>
+        <v>0.93111187682932317</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="0">
-        <v>0</v>
+        <v>0.83524463231537027</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="0">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0</v>
+        <v>0.68764685987331453</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.92254869853589438</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="BH53" s="0">
-        <v>0</v>
+        <v>0.67344032576139523</v>
       </c>
       <c r="BI53" s="0">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="BL53" s="0">
-        <v>0</v>
+        <v>0.84569927353971619</v>
       </c>
       <c r="BM53" s="0">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="0">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="0">
-        <v>0</v>
+        <v>0.93227657359769323</v>
       </c>
       <c r="AE54" s="0">
         <v>0</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0</v>
+        <v>0.59948693440406697</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="AX54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="0">
         <v>0</v>
@@ -11202,19 +11202,19 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.67243303414842126</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
       </c>
       <c r="BE54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF54" s="0">
         <v>0</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0">
         <v>0</v>
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="0">
         <v>0</v>
@@ -11324,10 +11324,10 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>0</v>
+        <v>0.95368146973409562</v>
       </c>
       <c r="Z55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="0">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="0">
-        <v>0</v>
+        <v>0.98193352162881475</v>
       </c>
       <c r="AK55" s="0">
         <v>0</v>
@@ -11411,16 +11411,16 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.77671015461195236</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>0</v>
+        <v>0.97131918194673683</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="0">
-        <v>0</v>
+        <v>0.68718600586131418</v>
       </c>
       <c r="AC56" s="0">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="0">
-        <v>0</v>
+        <v>0.8305553245047641</v>
       </c>
       <c r="AL56" s="0">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="AO56" s="0">
-        <v>0</v>
+        <v>0.98234696295907642</v>
       </c>
       <c r="AP56" s="0">
         <v>0</v>
@@ -11620,13 +11620,13 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.92936048257912884</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11691,10 +11691,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="0">
-        <v>0</v>
+        <v>0.57282131745185727</v>
       </c>
       <c r="K57" s="0">
-        <v>0</v>
+        <v>0.53711497916379392</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0</v>
+        <v>0.77551572634061339</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="0">
         <v>0</v>
@@ -11823,19 +11823,19 @@
         <v>0</v>
       </c>
       <c r="BB57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.82642523409232216</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.82116434360880697</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.59495022949856247</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>0</v>
+        <v>0.82082354660273493</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11954,13 +11954,13 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0">
-        <v>0</v>
+        <v>0.65868303460002287</v>
       </c>
       <c r="AD58" s="0">
         <v>0</v>
       </c>
       <c r="AE58" s="0">
-        <v>1</v>
+        <v>0.65712486236788936</v>
       </c>
       <c r="AF58" s="0">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0</v>
+        <v>0.98673200783820203</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.96275700939826891</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="BI58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ58" s="0">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="0">
-        <v>0</v>
+        <v>0.53996876317494891</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>0</v>
+        <v>0.99785962657924299</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12157,13 +12157,13 @@
         <v>0</v>
       </c>
       <c r="AB59" s="0">
-        <v>0</v>
+        <v>0.6225119564073287</v>
       </c>
       <c r="AC59" s="0">
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>0</v>
+        <v>0.83863110064438073</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12196,10 +12196,10 @@
         <v>0</v>
       </c>
       <c r="AO59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>0</v>
+        <v>0.81856609022455151</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0</v>
+        <v>0.63775231867003712</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12363,13 +12363,13 @@
         <v>0</v>
       </c>
       <c r="AB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="0">
         <v>0</v>
       </c>
       <c r="AD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="0">
         <v>0</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>0</v>
+        <v>0.93273660773013567</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0</v>
+        <v>0.9088894693761792</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>0</v>
+        <v>0.76933428115167324</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="0">
-        <v>0</v>
+        <v>0.64205308383052362</v>
       </c>
       <c r="BB60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12483,12 +12483,12 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0</v>
+        <v>0.63099463950554058</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12497,13 +12497,13 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>0</v>
+        <v>0.5465159429913713</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="0">
-        <v>0</v>
+        <v>0.5868851175305192</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>0</v>
+        <v>0.66102779399599521</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>0</v>
+        <v>0.66603944573663343</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12659,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="BF61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>0</v>
+        <v>0.8121393418714975</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="0">
-        <v>0</v>
+        <v>0.55414348321114248</v>
       </c>
       <c r="AD62" s="0">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>1</v>
+        <v>0.827093872340397</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -12880,13 +12880,13 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.86606289937129799</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN62" s="0">
         <v>0</v>
@@ -12895,15 +12895,15 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>0</v>
+        <v>0.88285931598273004</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -12924,19 +12924,19 @@
         <v>0</v>
       </c>
       <c r="I63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="0">
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
       </c>
       <c r="M63" s="0">
-        <v>0</v>
+        <v>0.55238924772647535</v>
       </c>
       <c r="N63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>0</v>
+        <v>0.67196553935182812</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.58041305344871574</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0</v>
+        <v>0.9747620600112944</v>
       </c>
       <c r="K64" s="0">
         <v>0</v>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="0">
         <v>0</v>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="AN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="0">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AW64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="0">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="0">
-        <v>0</v>
+        <v>0.87162884462882517</v>
       </c>
       <c r="BB64" s="0">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0</v>
+        <v>0.72766146887690164</v>
       </c>
       <c r="BH64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13307,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="BP64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>0</v>
+        <v>0.974306583307323</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0">
-        <v>0</v>
+        <v>0.54442930460764782</v>
       </c>
       <c r="Y65" s="0">
         <v>0</v>
@@ -13408,10 +13408,10 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0</v>
+        <v>0.51716710402042043</v>
       </c>
       <c r="AH65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>0</v>
+        <v>0.55029870526474145</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK65" s="0">
         <v>0</v>
@@ -13557,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="0">
         <v>0</v>
@@ -13611,13 +13611,13 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0</v>
+        <v>0.54476482627911715</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>1</v>
+        <v>0.83901028797922861</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.69309007417717106</v>
       </c>
     </row>
     <row r="67">
@@ -13751,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="0">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>0</v>
+        <v>0.75618989232814138</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>0</v>
+        <v>0.79111958959717099</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="AJ67" s="0">
-        <v>0</v>
+        <v>0.96450972514762823</v>
       </c>
       <c r="AK67" s="0">
         <v>0</v>
@@ -13841,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="AN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO67" s="0">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="0">
-        <v>0</v>
+        <v>0.80725941913082133</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0</v>
+        <v>0.79829288645825136</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="AM68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN68" s="0">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="AW68" s="0">
-        <v>0</v>
+        <v>0.7882602498944552</v>
       </c>
       <c r="AX68" s="0">
         <v>0</v>
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
@@ -14107,25 +14107,25 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM68" s="0">
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.81315086203468989</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject40.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject40.xlsx
@@ -82,7 +82,7 @@
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
     <col min="25" max="25" width="12.7109375" customWidth="true"/>
     <col min="26" max="26" width="12.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="12.7109375" customWidth="true"/>
     <col min="30" max="30" width="12.7109375" customWidth="true"/>
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.81609474327183962</v>
+        <v>0.99760234160146521</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0.59491672768330839</v>
+        <v>0.77607207723886007</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -308,7 +308,7 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>0.53594963900454906</v>
+        <v>0.63099463950554058</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="0">
-        <v>0.6670518260787861</v>
+        <v>0.77242586039908656</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -457,13 +457,13 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>0.69907859805780581</v>
+        <v>0.83206319017012631</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
       </c>
       <c r="AR2" s="0">
-        <v>0.75214636237087806</v>
+        <v>0.95926988189581452</v>
       </c>
       <c r="AS2" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>0.74161964191314911</v>
+        <v>0.88285931598273004</v>
       </c>
       <c r="BL2" s="0">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>0.6043432582051701</v>
+        <v>0.72489381406357412</v>
       </c>
       <c r="I3" s="0">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>0.53742515265676427</v>
+        <v>0.9611926258137109</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>0.82615239081356728</v>
+        <v>0.93272539818587097</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>0.74467892499225208</v>
+        <v>0.80725941913082133</v>
       </c>
     </row>
     <row r="4">
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="0">
-        <v>0.7516180947921336</v>
+        <v>0.97131918194673683</v>
       </c>
       <c r="BE4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.78044126746182019</v>
+        <v>0.92999031812534827</v>
       </c>
       <c r="D5" s="0">
-        <v>0.54725882349018018</v>
+        <v>0.97565328816883379</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.50461288209482724</v>
+        <v>0.89218304147574334</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>0.64388120506086044</v>
+        <v>0.98388894430718787</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.56290647329093146</v>
+        <v>0.74141703468960796</v>
       </c>
       <c r="AH6" s="0">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="0">
-        <v>0.75554160619464361</v>
+        <v>0.82859963162254802</v>
       </c>
       <c r="AG7" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.79803159896400633</v>
+        <v>0.96912974538947427</v>
       </c>
       <c r="H9" s="0">
-        <v>0.52594804897639835</v>
+        <v>0.94090006657833059</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>0.54774740340049055</v>
+        <v>0.88435413443829036</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>0.91946468252950253</v>
+        <v>0.93050050927153716</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>0.57789482449085428</v>
+        <v>0.8121393418714975</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="0">
-        <v>0.52666331764299823</v>
+        <v>0.57282131745185727</v>
       </c>
       <c r="BF10" s="0">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="BL10" s="0">
-        <v>0.86820418332864602</v>
+        <v>0.9747620600112944</v>
       </c>
       <c r="BM10" s="0">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="0">
-        <v>0.60524496280263529</v>
+        <v>0.76419277467056523</v>
       </c>
       <c r="AJ11" s="0">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="0">
-        <v>0.57976700730889785</v>
+        <v>0.91655104765488216</v>
       </c>
       <c r="AU11" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.51832645088109852</v>
+        <v>0.58558490730272084</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>0.56864360421393334</v>
+        <v>0.74328592116531333</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0.64112005677633221</v>
+        <v>0.67712342234046485</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.54252030491316128</v>
+        <v>0.64431465820992084</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.54296045902122692</v>
+        <v>0.62622877288884271</v>
       </c>
       <c r="N15" s="0">
         <v>0.64431465820992084</v>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0.71662513128730465</v>
+        <v>0.92635202019432761</v>
       </c>
       <c r="AO15" s="0">
-        <v>0.56677882780343303</v>
+        <v>0.9447113394607467</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BI15" s="0">
-        <v>0.57998490655887336</v>
+        <v>0.5868851175305192</v>
       </c>
       <c r="BJ15" s="0">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>0.59407720497442829</v>
+        <v>0.73621664492251626</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.90701633637043866</v>
+        <v>0.9457659993721802</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.604646929986139</v>
+        <v>0.68650013197796056</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.59485132964336218</v>
+        <v>0.81522961350378276</v>
       </c>
       <c r="R19" s="0">
-        <v>0.563200364512358</v>
+        <v>0.93641412115397493</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="0">
-        <v>0.6777923350585392</v>
+        <v>0.82379727089629395</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0.57662049931835935</v>
+        <v>0.91468451120493444</v>
       </c>
       <c r="AC19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>0.72292077892149997</v>
+        <v>0.75618989232814138</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="0">
-        <v>0.54088780545082604</v>
+        <v>0.65198771468076622</v>
       </c>
       <c r="AQ20" s="0">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>0.68733868765831219</v>
+        <v>0.74660557431321117</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0.66693560878816993</v>
+        <v>0.95849287941554961</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>0.57348647453141632</v>
+        <v>0.69615479683753234</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="0">
-        <v>0.72277216482581008</v>
+        <v>0.73634661472316609</v>
       </c>
       <c r="AM23" s="0">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="0">
-        <v>0.75857675816220138</v>
+        <v>0.83219289246860817</v>
       </c>
       <c r="AR23" s="0">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>0.57656605003202621</v>
+        <v>0.94538002538787635</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>0.90388774019735307</v>
+        <v>0.94179091859807307</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0.85011474731079972</v>
+        <v>0.99785962657924299</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>0.54682351422106112</v>
+        <v>0.95368146973409562</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>0.56424246934748268</v>
+        <v>0.63954060123522505</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="0">
-        <v>0.71093629928791802</v>
+        <v>0.91747583258037846</v>
       </c>
       <c r="M29" s="0">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>0.56807593192130401</v>
+        <v>0.96679213352342142</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0.9035954955344585</v>
+        <v>0.97274594172220263</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0.59548945523242858</v>
+        <v>0.77399096721355032</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="0">
-        <v>0.65531420421442121</v>
+        <v>0.87060904086894908</v>
       </c>
       <c r="AK30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0.53261124785109848</v>
+        <v>0.66374208498550824</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>0.85640029866117684</v>
+        <v>0.92891366431158873</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>0.83731648257921287</v>
+        <v>0.83863110064438073</v>
       </c>
       <c r="BH30" s="0">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="0">
-        <v>0.50543900294858146</v>
+        <v>0.61924786614908989</v>
       </c>
       <c r="L31" s="0">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>0.50324336826817173</v>
+        <v>0.98124701116759916</v>
       </c>
       <c r="AV31" s="0">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>0.62303958246755897</v>
+        <v>0.65712486236788936</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.67145543903653326</v>
+        <v>0.73397130018388834</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>0.91095515803369453</v>
+        <v>0.9497950759926681</v>
       </c>
       <c r="U33" s="0">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="AX33" s="0">
-        <v>0.6095223779957808</v>
+        <v>0.62381034257728207</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>0.86135311811242943</v>
+        <v>0.98703514814841231</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>0.74387036752237889</v>
+        <v>0.93273660773013567</v>
       </c>
       <c r="BI34" s="0">
         <v>0.86317246446396412</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>0.6959630931015246</v>
+        <v>0.83901028797922861</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0.93050050927153716</v>
       </c>
       <c r="J35" s="0">
-        <v>0.78495147661968911</v>
+        <v>0.90462301371035903</v>
       </c>
       <c r="K35" s="0">
         <v>0.76419277467056523</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>0.8630893190649398</v>
+        <v>0.98193352162881475</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="BO36" s="0">
-        <v>0.51585895680995697</v>
+        <v>0.96450972514762823</v>
       </c>
       <c r="BP36" s="0">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>0.62977121668699809</v>
+        <v>0.65373255755783433</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.85098685377733108</v>
+        <v>0.98802303245895007</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0.83023618433469626</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.54840397535613761</v>
+        <v>0.70199829258581414</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>0.51471895215992447</v>
+        <v>0.8305553245047641</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>0.59628317460715918</v>
+        <v>0.68572156312566979</v>
       </c>
       <c r="S38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.53063652647848281</v>
+        <v>0.83023618433469626</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0.8423373882100047</v>
+        <v>0.85833019134883992</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.59090795981156374</v>
+        <v>0.78170994521367598</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0.95849287941554961</v>
       </c>
       <c r="V41" s="0">
-        <v>0.59866776735385363</v>
+        <v>0.684857203277907</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.73522177722211257</v>
+        <v>0.74819695504387207</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="BD41" s="0">
-        <v>0.73121805722332134</v>
+        <v>0.98234696295907642</v>
       </c>
       <c r="BE41" s="0">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="BG42" s="0">
-        <v>0.7949747387837478</v>
+        <v>0.81856609022455151</v>
       </c>
       <c r="BH42" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.71197001143623928</v>
+        <v>0.86166742180182965</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0.50643870569015614</v>
+        <v>0.9088894693761792</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>0.7454310978645472</v>
+        <v>0.90587202770923636</v>
       </c>
       <c r="U44" s="0">
         <v>0</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="0">
-        <v>0.83292256271776532</v>
+        <v>0.84456678032729005</v>
       </c>
       <c r="M45" s="0">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="0">
-        <v>0.67495107998854031</v>
+        <v>0.91211909320257079</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>0.72377594737631967</v>
+        <v>0.76933428115167324</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>0.60590754323217388</v>
+        <v>0.74623363950806509</v>
       </c>
       <c r="M47" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0.5441159683081902</v>
+        <v>0.9537694111063284</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.63992901839251293</v>
+        <v>0.99745228836996613</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>0.50821377907140541</v>
+        <v>0.8173468971797343</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="BP49" s="0">
-        <v>0.51243530284476846</v>
+        <v>0.7882602498944552</v>
       </c>
     </row>
     <row r="50">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="0">
-        <v>0.70641376501675701</v>
+        <v>0.75744083570373888</v>
       </c>
       <c r="AB50" s="0">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0.50991212450015444</v>
+        <v>0.98673200783820203</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="0">
-        <v>0.6595267099620441</v>
+        <v>0.706231116755762</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -10461,13 +10461,13 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>0.61808036706308644</v>
+        <v>0.96604610688377324</v>
       </c>
       <c r="M51" s="0">
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>0.76049931113204372</v>
+        <v>0.82396188080980504</v>
       </c>
       <c r="O51" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>0.5747179499494468</v>
+        <v>0.69674426106610854</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="0">
-        <v>0.83524463231537027</v>
+        <v>0.83628703130179283</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.68764685987331453</v>
+        <v>0.93111187682932317</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="BL53" s="0">
-        <v>0.84569927353971619</v>
+        <v>0.87162884462882517</v>
       </c>
       <c r="BM53" s="0">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="0">
-        <v>0.93227657359769323</v>
+        <v>0.93959194615569297</v>
       </c>
       <c r="AE54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0.59948693440406697</v>
+        <v>0.72379160013800681</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.67243303414842126</v>
+        <v>0.92254869853589438</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.77671015461195236</v>
+        <v>0.82642523409232216</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="0">
-        <v>0.68718600586131418</v>
+        <v>0.94267336337804819</v>
       </c>
       <c r="AC56" s="0">
         <v>0</v>
@@ -11694,7 +11694,7 @@
         <v>0.57282131745185727</v>
       </c>
       <c r="K57" s="0">
-        <v>0.53711497916379392</v>
+        <v>0.80789480980143147</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.77551572634061339</v>
+        <v>0.83594212218574548</v>
       </c>
       <c r="R57" s="0">
         <v>0</v>
@@ -11829,13 +11829,13 @@
         <v>0.82642523409232216</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.82116434360880697</v>
+        <v>0.92936048257912884</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.59495022949856247</v>
+        <v>0.96275700939826891</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0">
-        <v>0.65868303460002287</v>
+        <v>0.99120958124043557</v>
       </c>
       <c r="AD58" s="0">
         <v>0</v>
@@ -12079,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="0">
-        <v>0.53996876317494891</v>
+        <v>0.63997464987429575</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="0">
-        <v>0.6225119564073287</v>
+        <v>0.98370340975522541</v>
       </c>
       <c r="AC59" s="0">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0.63775231867003712</v>
+        <v>0.72766146887690164</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="0">
-        <v>0.64205308383052362</v>
+        <v>0.67344032576139523</v>
       </c>
       <c r="BB60" s="0">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>0.5465159429913713</v>
+        <v>0.97375119774146346</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>0.66102779399599521</v>
+        <v>0.86317246446396412</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>0.66603944573663343</v>
+        <v>0.68017135873679013</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="0">
-        <v>0.55414348321114248</v>
+        <v>0.87154922028353399</v>
       </c>
       <c r="AD62" s="0">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>0.827093872340397</v>
+        <v>0.97010809219839755</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="0">
-        <v>0.55238924772647535</v>
+        <v>0.97219132602138614</v>
       </c>
       <c r="N63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>0.67196553935182812</v>
+        <v>0.94597936359639456</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.58041305344871574</v>
+        <v>0.86606289937129799</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>0.974306583307323</v>
+        <v>0.98620252584750578</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0">
-        <v>0.54442930460764782</v>
+        <v>0.63137672264315714</v>
       </c>
       <c r="Y65" s="0">
         <v>0</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>0.51716710402042043</v>
+        <v>0.67128069194027717</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>0.55029870526474145</v>
+        <v>0.82082354660273493</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0.54476482627911715</v>
+        <v>0.71948426752648764</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.69309007417717106</v>
+        <v>0.81315086203468989</v>
       </c>
     </row>
     <row r="67">
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>0.79111958959717099</v>
+        <v>0.79315812036494082</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0.79829288645825136</v>
+        <v>0.80077943942617491</v>
       </c>
       <c r="R68" s="0">
         <v>0</v>
